--- a/biology/Botanique/Limonium_pectinatum/Limonium_pectinatum.xlsx
+++ b/biology/Botanique/Limonium_pectinatum/Limonium_pectinatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Limonium pectinatum est une espèce de plante de la famille des Plumbaginaceae et du genre Limonium.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Limonium pectinatum est une plante herbacée vivace qui atteint des hauteurs de 5 à 30 centimètres. Les tiges sont en partie décombantes et à peine ailées. Il y a de nombreuses rosettes sur les tiges ramifiées. Les feuilles mesurent de 2 à 5 cm de long[2], spatulées et grises. Le calice est pentagonal émoussé et blanchâtre. Les fleurs sont violet pâle ou blanches.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Limonium pectinatum est une plante herbacée vivace qui atteint des hauteurs de 5 à 30 centimètres. Les tiges sont en partie décombantes et à peine ailées. Il y a de nombreuses rosettes sur les tiges ramifiées. Les feuilles mesurent de 2 à 5 cm de long, spatulées et grises. Le calice est pentagonal émoussé et blanchâtre. Les fleurs sont violet pâle ou blanches.
 La période de floraison s'étend de janvier à juin.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Limonium pectinatum est présente sur les côtes rocheuses des îles Canaries d'El Hierro, La Palma, La Gomera, Tenerife et Grande Canarie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Limonium pectinatum est présente sur les côtes rocheuses des îles Canaries d'El Hierro, La Palma, La Gomera, Tenerife et Grande Canarie.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fleur a pour parasite Agdistis bifurcatus (en). La feuille a pour parasites Agdistis meridionalis, Paraepidiaspis staticicola (sv), Erysiphe limonii, Acalyptris staticis (en), Lobesia neptunia, Uromyces limonii[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur a pour parasite Agdistis bifurcatus (en). La feuille a pour parasites Agdistis meridionalis, Paraepidiaspis staticicola (sv), Erysiphe limonii, Acalyptris staticis (en), Lobesia neptunia, Uromyces limonii.
 </t>
         </is>
       </c>
